--- a/public/cohort/fileExcel/xlsxUIT/OPEN/SK_OPEN.xlsx
+++ b/public/cohort/fileExcel/xlsxUIT/OPEN/SK_OPEN.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="109">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="121">
   <si>
     <t>betekenis kleuren</t>
   </si>
@@ -885,31 +885,31 @@
     <t>H</t>
   </si>
   <si>
-    <t>H1 Scheiden en reageren</t>
+    <t>SO H1: Scheiden en reageren</t>
   </si>
   <si>
     <t>startJaar</t>
   </si>
   <si>
-    <t>H2 en 3 Bouwstenen van stoffen, stoffen en reacties, met basiskennis uit de vorige hoofdstukken</t>
+    <t>Proefwerk H1: Scheiden en reageren en H2: Bouwstenen van stoffen</t>
   </si>
   <si>
     <t>cid</t>
   </si>
   <si>
-    <t>Schriftelijk rekenen aan reacties</t>
+    <t>Proefwerk H3: Stoffen en reacties en H4: moleculaire stoffen met basiskennis van H1 en H2</t>
   </si>
   <si>
     <t>eindJaar</t>
   </si>
   <si>
-    <t>Proefwerk H4 Moleculaire stoffen, met basiskennis uit de vorige hoofdstukken</t>
+    <t>SO rekenen in de scheikunde</t>
   </si>
   <si>
     <t>vandaag</t>
   </si>
   <si>
-    <t xml:space="preserve">Een scheikundig onderzoek, zouten en zoutoplossingen. H1, H2, H3, H5 </t>
+    <t xml:space="preserve">Een scheikundig onderzoek; zouten en zoutoplossingen: H1, H2, H3, H5 </t>
   </si>
   <si>
     <t>A, D2</t>
@@ -918,7 +918,7 @@
     <t>huidigStartjaar</t>
   </si>
   <si>
-    <t>Proefwerk H6 koolstofchemie</t>
+    <t>Proefwerk H6: koolstofchemie</t>
   </si>
   <si>
     <t>huidigSchooljaar</t>
@@ -930,28 +930,61 @@
     <t>groep</t>
   </si>
   <si>
+    <t>De BINAS HAVO/VWO is bij alle schriftelijke toetsen een toegestaan hulpmiddel, tenzij anders vermeld bij de toets.</t>
+  </si>
+  <si>
     <t>mavo?</t>
   </si>
   <si>
-    <t>De BINAS HAVO/VWO is bij alle schriftelijke toetsen een toegestaan hulpmiddel, tenzij anders vermeld bij de toets.</t>
+    <t>H1 Scheiden en reageren</t>
+  </si>
+  <si>
+    <t>kies...</t>
+  </si>
+  <si>
+    <t>H2 en 3 Bouwstenen van stoffen, stoffen en reacties, met basiskennis uit de vorige hoofdstukken</t>
+  </si>
+  <si>
+    <t>Schriftelijk rekenen aan reacties</t>
+  </si>
+  <si>
+    <t>Proefwerk H4 Moleculaire stoffen, met basiskennis uit de vorige hoofdstukken</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Een scheikundig onderzoek, zouten en zoutoplossingen. H1, H2, H3, H5 </t>
+  </si>
+  <si>
+    <t>Proefwerk H6 koolstofchemie</t>
+  </si>
+  <si>
+    <t>H7, H8, H10 - Zuren, basen, redoxreacties. Basiskennis H1 t/m H6</t>
+  </si>
+  <si>
+    <t>E2, E3, F4</t>
+  </si>
+  <si>
+    <t>H9, H13 - Reacties en energie, duurzaam produceren. Basiskennis H1 t/m H6</t>
+  </si>
+  <si>
+    <t>C4, C5, E2, F2, F4, F5, G3, G4, G5</t>
+  </si>
+  <si>
+    <t>H6, H11, H12 - Koolstofchemie, Kunststoffen, Chemie van het leven. Basiskennis H1 t/m H6</t>
+  </si>
+  <si>
+    <t>D4</t>
+  </si>
+  <si>
+    <t>Uitvoering practicumvaardigheden</t>
   </si>
   <si>
     <t>H7, H8, H10 - Zuren, basen, redoxreacties. H1 t/m H5: Basiskennis</t>
   </si>
   <si>
-    <t>E2, E3, F4</t>
-  </si>
-  <si>
     <t>H9, H13 - Reacties en energie, duurzaam produceren. H1 t/m H5: Basiskennis</t>
   </si>
   <si>
-    <t>C4, C5, E2, F2, F4, F5, G3, G4, G5</t>
-  </si>
-  <si>
     <t>H11, H12 - Kunststoffen, chemie van het leven. H1 t/m H5: Basiskennis</t>
-  </si>
-  <si>
-    <t>D4</t>
   </si>
   <si>
     <t>Vaardigheden</t>
@@ -981,13 +1014,10 @@
     <t>Proefwerk H6 en H7 (koolstofchemie, duurzaamheid), met basiskennis van de vorige hoofdstukken</t>
   </si>
   <si>
-    <t>H7 en H8 - Duurzaamheidheid, zuren</t>
+    <t>H7 en H8 - Duurzaamheid, zuren</t>
   </si>
   <si>
-    <t>A, C9, E3, F4, F5, G4, G5</t>
-  </si>
-  <si>
-    <t>H8, H9, H11 - Zzuren, basen, redoxreacties</t>
+    <t>H8, H9, H11 - Zuren, basen, redoxreacties</t>
   </si>
   <si>
     <t>C9, C10, D2, E3, F4</t>
@@ -1006,6 +1036,12 @@
   </si>
   <si>
     <t>A, D2, E4, E5, F4, F5, G4</t>
+  </si>
+  <si>
+    <t>H7 en H8 - Duurzaamheidheid, zuren</t>
+  </si>
+  <si>
+    <t>A, C9, E3, F4, F5, G4, G5</t>
   </si>
   <si>
     <t>H8, H9, H11, H17, H18 - Redoxreacties, zuren en basen, H1 t/m 6: Basiskennis</t>
@@ -2247,7 +2283,7 @@
       </c>
       <c r="F2" s="43">
         <f>SUM(AF6:AF35)</f>
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="G2" s="49" t="str">
         <f>IF(B14&gt;6,"verouderd PTA",CONCATENATE("Dit is het programma van de huidige ",B6,B14," (cohort ",B7," - ",B9,")"))</f>
@@ -2406,21 +2442,21 @@
         <v>63</v>
       </c>
       <c r="I6" s="45">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J6" s="29" t="s">
         <v>7</v>
       </c>
       <c r="K6" s="30"/>
       <c r="L6" s="45">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="M6" s="27" t="s">
         <v>11</v>
       </c>
       <c r="N6" s="46"/>
       <c r="O6" s="31" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="P6" s="32"/>
       <c r="R6" s="7">
@@ -2465,7 +2501,7 @@
       </c>
       <c r="AB6" s="7">
         <f>IF(AND(OR($O6=instellingen!$I$3,$O6=instellingen!$I$4),OR($M6=instellingen!$I$2,$M6=instellingen!$I$4)),1,0)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC6" s="7">
         <f>IF(AND($O6=instellingen!$I$2,$M6=instellingen!$I$3),1,0)</f>
@@ -2481,7 +2517,7 @@
       </c>
       <c r="AF6" s="8">
         <f>SUM(R6:AE6)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:32" customHeight="1" ht="72">
@@ -2496,7 +2532,7 @@
       </c>
       <c r="E7" s="2"/>
       <c r="G7" s="27">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H7" s="28" t="s">
         <v>65</v>
@@ -2516,7 +2552,7 @@
       </c>
       <c r="N7" s="46"/>
       <c r="O7" s="31" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="P7" s="32"/>
       <c r="R7" s="7">
@@ -2561,7 +2597,7 @@
       </c>
       <c r="AB7" s="7">
         <f>IF(AND(OR($O7=instellingen!$I$3,$O7=instellingen!$I$4),OR($M7=instellingen!$I$2,$M7=instellingen!$I$4)),1,0)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC7" s="7">
         <f>IF(AND($O7=instellingen!$I$2,$M7=instellingen!$I$3),1,0)</f>
@@ -2577,7 +2613,7 @@
       </c>
       <c r="AF7" s="8">
         <f>SUM(R7:AE7)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:32" customHeight="1" ht="72">
@@ -2592,27 +2628,27 @@
       </c>
       <c r="E8" s="2"/>
       <c r="G8" s="27">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H8" s="28" t="s">
         <v>67</v>
       </c>
       <c r="I8" s="45">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J8" s="29" t="s">
         <v>7</v>
       </c>
       <c r="K8" s="30"/>
       <c r="L8" s="45">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="M8" s="27" t="s">
         <v>11</v>
       </c>
       <c r="N8" s="46"/>
       <c r="O8" s="31" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="P8" s="32"/>
       <c r="R8" s="7">
@@ -2657,7 +2693,7 @@
       </c>
       <c r="AB8" s="7">
         <f>IF(AND(OR($O8=instellingen!$I$3,$O8=instellingen!$I$4),OR($M8=instellingen!$I$2,$M8=instellingen!$I$4)),1,0)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC8" s="7">
         <f>IF(AND($O8=instellingen!$I$2,$M8=instellingen!$I$3),1,0)</f>
@@ -2673,7 +2709,7 @@
       </c>
       <c r="AF8" s="8">
         <f>SUM(R8:AE8)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:32" customHeight="1" ht="72">
@@ -2695,21 +2731,21 @@
         <v>69</v>
       </c>
       <c r="I9" s="45">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J9" s="29" t="s">
         <v>7</v>
       </c>
       <c r="K9" s="30"/>
       <c r="L9" s="45">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="M9" s="27" t="s">
         <v>11</v>
       </c>
       <c r="N9" s="46"/>
       <c r="O9" s="31" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="P9" s="32"/>
       <c r="R9" s="7">
@@ -2754,7 +2790,7 @@
       </c>
       <c r="AB9" s="7">
         <f>IF(AND(OR($O9=instellingen!$I$3,$O9=instellingen!$I$4),OR($M9=instellingen!$I$2,$M9=instellingen!$I$4)),1,0)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC9" s="7">
         <f>IF(AND($O9=instellingen!$I$2,$M9=instellingen!$I$3),1,0)</f>
@@ -2770,7 +2806,7 @@
       </c>
       <c r="AF9" s="8">
         <f>SUM(R9:AE9)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:32" customHeight="1" ht="72">
@@ -2779,14 +2815,14 @@
       </c>
       <c r="B10" s="6">
         <f>NOW()</f>
-        <v>44379.602314815</v>
+        <v>44385.633368056</v>
       </c>
       <c r="D10" s="2">
         <v>893</v>
       </c>
       <c r="E10" s="2"/>
       <c r="G10" s="27">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H10" s="28" t="s">
         <v>71</v>
@@ -2905,7 +2941,7 @@
       </c>
       <c r="N11" s="46"/>
       <c r="O11" s="31" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="P11" s="32"/>
       <c r="R11" s="7">
@@ -2950,7 +2986,7 @@
       </c>
       <c r="AB11" s="7">
         <f>IF(AND(OR($O11=instellingen!$I$3,$O11=instellingen!$I$4),OR($M11=instellingen!$I$2,$M11=instellingen!$I$4)),1,0)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC11" s="7">
         <f>IF(AND($O11=instellingen!$I$2,$M11=instellingen!$I$3),1,0)</f>
@@ -2966,7 +3002,7 @@
       </c>
       <c r="AF11" s="8">
         <f>SUM(R11:AE11)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:32">
@@ -3039,7 +3075,9 @@
         <f>B15+B11-B7</f>
         <v>3</v>
       </c>
-      <c r="G14" s="48"/>
+      <c r="G14" s="48" t="s">
+        <v>78</v>
+      </c>
       <c r="H14" s="48"/>
       <c r="I14" s="48"/>
       <c r="J14" s="48"/>
@@ -3063,7 +3101,7 @@
     </row>
     <row r="15" spans="1:32">
       <c r="A15" s="9" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B15" s="7">
         <f>IF(B6="M",3,4)</f>
@@ -4533,7 +4571,7 @@
       </c>
       <c r="F2" s="43">
         <f>SUM(AF6:AF35)</f>
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="G2" s="49" t="str">
         <f>IF(B14&gt;6,"verouderd PTA",CONCATENATE("Dit is het programma van de huidige ",B6,B14," (cohort ",B7," - ",B9,")"))</f>
@@ -4689,7 +4727,7 @@
         <v>1</v>
       </c>
       <c r="H6" s="28" t="s">
-        <v>63</v>
+        <v>80</v>
       </c>
       <c r="I6" s="45">
         <v>2</v>
@@ -4706,7 +4744,7 @@
       </c>
       <c r="N6" s="46"/>
       <c r="O6" s="31" t="s">
-        <v>11</v>
+        <v>81</v>
       </c>
       <c r="P6" s="32"/>
       <c r="R6" s="7">
@@ -4751,7 +4789,7 @@
       </c>
       <c r="AB6" s="7">
         <f>IF(AND(OR($O6=instellingen!$I$3,$O6=instellingen!$I$4),OR($M6=instellingen!$I$2,$M6=instellingen!$I$4)),1,0)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC6" s="7">
         <f>IF(AND($O6=instellingen!$I$2,$M6=instellingen!$I$3),1,0)</f>
@@ -4767,7 +4805,7 @@
       </c>
       <c r="AF6" s="8">
         <f>SUM(R6:AE6)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:32" customHeight="1" ht="72">
@@ -4785,7 +4823,7 @@
         <v>2</v>
       </c>
       <c r="H7" s="28" t="s">
-        <v>65</v>
+        <v>82</v>
       </c>
       <c r="I7" s="45">
         <v>2</v>
@@ -4802,7 +4840,7 @@
       </c>
       <c r="N7" s="46"/>
       <c r="O7" s="31" t="s">
-        <v>11</v>
+        <v>81</v>
       </c>
       <c r="P7" s="32"/>
       <c r="R7" s="7">
@@ -4847,7 +4885,7 @@
       </c>
       <c r="AB7" s="7">
         <f>IF(AND(OR($O7=instellingen!$I$3,$O7=instellingen!$I$4),OR($M7=instellingen!$I$2,$M7=instellingen!$I$4)),1,0)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC7" s="7">
         <f>IF(AND($O7=instellingen!$I$2,$M7=instellingen!$I$3),1,0)</f>
@@ -4863,7 +4901,7 @@
       </c>
       <c r="AF7" s="8">
         <f>SUM(R7:AE7)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:32" customHeight="1" ht="72">
@@ -4881,7 +4919,7 @@
         <v>3</v>
       </c>
       <c r="H8" s="28" t="s">
-        <v>67</v>
+        <v>83</v>
       </c>
       <c r="I8" s="45">
         <v>1</v>
@@ -4898,7 +4936,7 @@
       </c>
       <c r="N8" s="46"/>
       <c r="O8" s="31" t="s">
-        <v>11</v>
+        <v>81</v>
       </c>
       <c r="P8" s="32"/>
       <c r="R8" s="7">
@@ -4943,7 +4981,7 @@
       </c>
       <c r="AB8" s="7">
         <f>IF(AND(OR($O8=instellingen!$I$3,$O8=instellingen!$I$4),OR($M8=instellingen!$I$2,$M8=instellingen!$I$4)),1,0)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC8" s="7">
         <f>IF(AND($O8=instellingen!$I$2,$M8=instellingen!$I$3),1,0)</f>
@@ -4959,7 +4997,7 @@
       </c>
       <c r="AF8" s="8">
         <f>SUM(R8:AE8)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:32" customHeight="1" ht="72">
@@ -4978,7 +5016,7 @@
         <v>3</v>
       </c>
       <c r="H9" s="28" t="s">
-        <v>69</v>
+        <v>84</v>
       </c>
       <c r="I9" s="45">
         <v>2</v>
@@ -4995,7 +5033,7 @@
       </c>
       <c r="N9" s="46"/>
       <c r="O9" s="31" t="s">
-        <v>11</v>
+        <v>81</v>
       </c>
       <c r="P9" s="32"/>
       <c r="R9" s="7">
@@ -5040,7 +5078,7 @@
       </c>
       <c r="AB9" s="7">
         <f>IF(AND(OR($O9=instellingen!$I$3,$O9=instellingen!$I$4),OR($M9=instellingen!$I$2,$M9=instellingen!$I$4)),1,0)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC9" s="7">
         <f>IF(AND($O9=instellingen!$I$2,$M9=instellingen!$I$3),1,0)</f>
@@ -5056,7 +5094,7 @@
       </c>
       <c r="AF9" s="8">
         <f>SUM(R9:AE9)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:32" customHeight="1" ht="72">
@@ -5065,7 +5103,7 @@
       </c>
       <c r="B10" s="6">
         <f>NOW()</f>
-        <v>44379.602314815</v>
+        <v>44385.633368056</v>
       </c>
       <c r="D10" s="2">
         <v>237</v>
@@ -5075,7 +5113,7 @@
         <v>4</v>
       </c>
       <c r="H10" s="28" t="s">
-        <v>71</v>
+        <v>85</v>
       </c>
       <c r="I10" s="45">
         <v>2</v>
@@ -5174,7 +5212,7 @@
         <v>4</v>
       </c>
       <c r="H11" s="28" t="s">
-        <v>74</v>
+        <v>86</v>
       </c>
       <c r="I11" s="45">
         <v>2</v>
@@ -5191,7 +5229,7 @@
       </c>
       <c r="N11" s="46"/>
       <c r="O11" s="31" t="s">
-        <v>11</v>
+        <v>81</v>
       </c>
       <c r="P11" s="32"/>
       <c r="R11" s="7">
@@ -5236,7 +5274,7 @@
       </c>
       <c r="AB11" s="7">
         <f>IF(AND(OR($O11=instellingen!$I$3,$O11=instellingen!$I$4),OR($M11=instellingen!$I$2,$M11=instellingen!$I$4)),1,0)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC11" s="7">
         <f>IF(AND($O11=instellingen!$I$2,$M11=instellingen!$I$3),1,0)</f>
@@ -5252,7 +5290,7 @@
       </c>
       <c r="AF11" s="8">
         <f>SUM(R11:AE11)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:32">
@@ -5326,7 +5364,7 @@
         <v>4</v>
       </c>
       <c r="G14" s="48" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="H14" s="48"/>
       <c r="I14" s="48"/>
@@ -5351,7 +5389,7 @@
     </row>
     <row r="15" spans="1:32">
       <c r="A15" s="9" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B15" s="7">
         <f>IF(B6="M",3,4)</f>
@@ -5457,7 +5495,7 @@
         <v>1</v>
       </c>
       <c r="H18" s="28" t="s">
-        <v>80</v>
+        <v>87</v>
       </c>
       <c r="I18" s="45"/>
       <c r="J18" s="29" t="s">
@@ -5474,10 +5512,10 @@
         <v>2</v>
       </c>
       <c r="O18" s="31" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="P18" s="32" t="s">
-        <v>81</v>
+        <v>88</v>
       </c>
       <c r="R18" s="7">
         <f>IF(OR(AND($G18&lt;&gt;instellingen!$G$2,ISBLANK($H18)),AND($G18=instellingen!$G$2,$H18&lt;&gt;"")),1,0)</f>
@@ -5549,7 +5587,7 @@
         <v>2</v>
       </c>
       <c r="H19" s="28" t="s">
-        <v>82</v>
+        <v>89</v>
       </c>
       <c r="I19" s="45"/>
       <c r="J19" s="29" t="s">
@@ -5566,10 +5604,10 @@
         <v>2</v>
       </c>
       <c r="O19" s="31" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="P19" s="32" t="s">
-        <v>83</v>
+        <v>90</v>
       </c>
       <c r="R19" s="7">
         <f>IF(OR(AND($G19&lt;&gt;instellingen!$G$2,ISBLANK($H19)),AND($G19=instellingen!$G$2,$H19&lt;&gt;"")),1,0)</f>
@@ -5641,7 +5679,7 @@
         <v>3</v>
       </c>
       <c r="H20" s="28" t="s">
-        <v>84</v>
+        <v>91</v>
       </c>
       <c r="I20" s="45"/>
       <c r="J20" s="29" t="s">
@@ -5658,10 +5696,10 @@
         <v>2</v>
       </c>
       <c r="O20" s="31" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="P20" s="32" t="s">
-        <v>85</v>
+        <v>92</v>
       </c>
       <c r="R20" s="7">
         <f>IF(OR(AND($G20&lt;&gt;instellingen!$G$2,ISBLANK($H20)),AND($G20=instellingen!$G$2,$H20&lt;&gt;"")),1,0)</f>
@@ -5730,10 +5768,10 @@
       </c>
       <c r="E21" s="2"/>
       <c r="G21" s="27">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="H21" s="28" t="s">
-        <v>86</v>
+        <v>93</v>
       </c>
       <c r="I21" s="45"/>
       <c r="J21" s="29" t="s">
@@ -6027,7 +6065,9 @@
       <c r="AE25" s="7"/>
     </row>
     <row r="26" spans="1:32" customHeight="1" ht="72">
-      <c r="G26" s="48"/>
+      <c r="G26" s="48" t="s">
+        <v>78</v>
+      </c>
       <c r="H26" s="48"/>
       <c r="I26" s="48"/>
       <c r="J26" s="48"/>
@@ -7359,7 +7399,7 @@
       </c>
       <c r="B10" s="6">
         <f>NOW()</f>
-        <v>44379.602314815</v>
+        <v>44385.63337963</v>
       </c>
       <c r="D10" s="2"/>
       <c r="E10" s="2"/>
@@ -7625,7 +7665,7 @@
     </row>
     <row r="15" spans="1:32">
       <c r="A15" s="9" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B15" s="7">
         <f>IF(B6="M",3,4)</f>
@@ -7731,7 +7771,7 @@
         <v>1</v>
       </c>
       <c r="H18" s="28" t="s">
-        <v>80</v>
+        <v>94</v>
       </c>
       <c r="I18" s="45"/>
       <c r="J18" s="29" t="s">
@@ -7748,10 +7788,10 @@
         <v>2</v>
       </c>
       <c r="O18" s="31" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="P18" s="32" t="s">
-        <v>81</v>
+        <v>88</v>
       </c>
       <c r="R18" s="7">
         <f>IF(OR(AND($G18&lt;&gt;instellingen!$G$2,ISBLANK($H18)),AND($G18=instellingen!$G$2,$H18&lt;&gt;"")),1,0)</f>
@@ -7823,7 +7863,7 @@
         <v>2</v>
       </c>
       <c r="H19" s="28" t="s">
-        <v>82</v>
+        <v>95</v>
       </c>
       <c r="I19" s="45"/>
       <c r="J19" s="29" t="s">
@@ -7840,10 +7880,10 @@
         <v>2</v>
       </c>
       <c r="O19" s="31" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="P19" s="32" t="s">
-        <v>83</v>
+        <v>90</v>
       </c>
       <c r="R19" s="7">
         <f>IF(OR(AND($G19&lt;&gt;instellingen!$G$2,ISBLANK($H19)),AND($G19=instellingen!$G$2,$H19&lt;&gt;"")),1,0)</f>
@@ -7915,7 +7955,7 @@
         <v>3</v>
       </c>
       <c r="H20" s="28" t="s">
-        <v>84</v>
+        <v>96</v>
       </c>
       <c r="I20" s="45"/>
       <c r="J20" s="29" t="s">
@@ -7932,10 +7972,10 @@
         <v>2</v>
       </c>
       <c r="O20" s="31" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="P20" s="32" t="s">
-        <v>85</v>
+        <v>92</v>
       </c>
       <c r="R20" s="7">
         <f>IF(OR(AND($G20&lt;&gt;instellingen!$G$2,ISBLANK($H20)),AND($G20=instellingen!$G$2,$H20&lt;&gt;"")),1,0)</f>
@@ -8004,10 +8044,10 @@
       </c>
       <c r="E21" s="2"/>
       <c r="G21" s="27">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="H21" s="28" t="s">
-        <v>86</v>
+        <v>97</v>
       </c>
       <c r="I21" s="45"/>
       <c r="J21" s="29" t="s">
@@ -8302,7 +8342,7 @@
     </row>
     <row r="26" spans="1:32" customHeight="1" ht="72">
       <c r="G26" s="48" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="H26" s="48"/>
       <c r="I26" s="48"/>
@@ -9135,7 +9175,7 @@
       </c>
       <c r="F2" s="43">
         <f>SUM(AF6:AF35)</f>
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="G2" s="49" t="str">
         <f>IF(B14&gt;6,"verouderd PTA",CONCATENATE("Dit is het programma van de huidige ",B6,B14," (cohort ",B7," - ",B9,")"))</f>
@@ -9281,7 +9321,7 @@
         <v>61</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>87</v>
+        <v>98</v>
       </c>
       <c r="D6" s="2">
         <v>903</v>
@@ -9291,7 +9331,7 @@
         <v>1</v>
       </c>
       <c r="H6" s="28" t="s">
-        <v>88</v>
+        <v>99</v>
       </c>
       <c r="I6" s="45">
         <v>1</v>
@@ -9308,7 +9348,7 @@
       </c>
       <c r="N6" s="46"/>
       <c r="O6" s="31" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="P6" s="32"/>
       <c r="R6" s="7">
@@ -9353,7 +9393,7 @@
       </c>
       <c r="AB6" s="7">
         <f>IF(AND(OR($O6=instellingen!$I$3,$O6=instellingen!$I$4),OR($M6=instellingen!$I$2,$M6=instellingen!$I$4)),1,0)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC6" s="7">
         <f>IF(AND($O6=instellingen!$I$2,$M6=instellingen!$I$3),1,0)</f>
@@ -9369,7 +9409,7 @@
       </c>
       <c r="AF6" s="8">
         <f>SUM(R6:AE6)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:32" customHeight="1" ht="72">
@@ -9387,7 +9427,7 @@
         <v>1</v>
       </c>
       <c r="H7" s="28" t="s">
-        <v>89</v>
+        <v>100</v>
       </c>
       <c r="I7" s="45">
         <v>2</v>
@@ -9404,7 +9444,7 @@
       </c>
       <c r="N7" s="46"/>
       <c r="O7" s="31" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="P7" s="32"/>
       <c r="R7" s="7">
@@ -9449,7 +9489,7 @@
       </c>
       <c r="AB7" s="7">
         <f>IF(AND(OR($O7=instellingen!$I$3,$O7=instellingen!$I$4),OR($M7=instellingen!$I$2,$M7=instellingen!$I$4)),1,0)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC7" s="7">
         <f>IF(AND($O7=instellingen!$I$2,$M7=instellingen!$I$3),1,0)</f>
@@ -9465,7 +9505,7 @@
       </c>
       <c r="AF7" s="8">
         <f>SUM(R7:AE7)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:32" customHeight="1" ht="72">
@@ -9483,7 +9523,7 @@
         <v>2</v>
       </c>
       <c r="H8" s="28" t="s">
-        <v>90</v>
+        <v>101</v>
       </c>
       <c r="I8" s="45">
         <v>2</v>
@@ -9500,7 +9540,7 @@
       </c>
       <c r="N8" s="46"/>
       <c r="O8" s="31" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="P8" s="32"/>
       <c r="R8" s="7">
@@ -9545,7 +9585,7 @@
       </c>
       <c r="AB8" s="7">
         <f>IF(AND(OR($O8=instellingen!$I$3,$O8=instellingen!$I$4),OR($M8=instellingen!$I$2,$M8=instellingen!$I$4)),1,0)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC8" s="7">
         <f>IF(AND($O8=instellingen!$I$2,$M8=instellingen!$I$3),1,0)</f>
@@ -9561,7 +9601,7 @@
       </c>
       <c r="AF8" s="8">
         <f>SUM(R8:AE8)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:32" customHeight="1" ht="72">
@@ -9580,7 +9620,7 @@
         <v>3</v>
       </c>
       <c r="H9" s="28" t="s">
-        <v>91</v>
+        <v>102</v>
       </c>
       <c r="I9" s="45">
         <v>1</v>
@@ -9597,7 +9637,7 @@
       </c>
       <c r="N9" s="46"/>
       <c r="O9" s="31" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="P9" s="32"/>
       <c r="R9" s="7">
@@ -9642,7 +9682,7 @@
       </c>
       <c r="AB9" s="7">
         <f>IF(AND(OR($O9=instellingen!$I$3,$O9=instellingen!$I$4),OR($M9=instellingen!$I$2,$M9=instellingen!$I$4)),1,0)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC9" s="7">
         <f>IF(AND($O9=instellingen!$I$2,$M9=instellingen!$I$3),1,0)</f>
@@ -9658,7 +9698,7 @@
       </c>
       <c r="AF9" s="8">
         <f>SUM(R9:AE9)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:32" customHeight="1" ht="72">
@@ -9667,7 +9707,7 @@
       </c>
       <c r="B10" s="6">
         <f>NOW()</f>
-        <v>44379.602314815</v>
+        <v>44385.63337963</v>
       </c>
       <c r="D10" s="2">
         <v>907</v>
@@ -9677,7 +9717,7 @@
         <v>3</v>
       </c>
       <c r="H10" s="28" t="s">
-        <v>92</v>
+        <v>103</v>
       </c>
       <c r="I10" s="45">
         <v>2</v>
@@ -9697,7 +9737,7 @@
         <v>11</v>
       </c>
       <c r="P10" s="32" t="s">
-        <v>93</v>
+        <v>104</v>
       </c>
       <c r="R10" s="7">
         <f>IF(OR(AND($G10&lt;&gt;instellingen!$G$2,ISBLANK($H10)),AND($G10=instellingen!$G$2,$H10&lt;&gt;"")),1,0)</f>
@@ -9776,7 +9816,7 @@
         <v>4</v>
       </c>
       <c r="H11" s="28" t="s">
-        <v>94</v>
+        <v>105</v>
       </c>
       <c r="I11" s="45">
         <v>2</v>
@@ -9793,7 +9833,7 @@
       </c>
       <c r="N11" s="46"/>
       <c r="O11" s="31" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="P11" s="32"/>
       <c r="R11" s="7">
@@ -9838,7 +9878,7 @@
       </c>
       <c r="AB11" s="7">
         <f>IF(AND(OR($O11=instellingen!$I$3,$O11=instellingen!$I$4),OR($M11=instellingen!$I$2,$M11=instellingen!$I$4)),1,0)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC11" s="7">
         <f>IF(AND($O11=instellingen!$I$2,$M11=instellingen!$I$3),1,0)</f>
@@ -9854,7 +9894,7 @@
       </c>
       <c r="AF11" s="8">
         <f>SUM(R11:AE11)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:32">
@@ -9927,7 +9967,9 @@
         <f>B15+B11-B7</f>
         <v>3</v>
       </c>
-      <c r="G14" s="48"/>
+      <c r="G14" s="48" t="s">
+        <v>78</v>
+      </c>
       <c r="H14" s="48"/>
       <c r="I14" s="48"/>
       <c r="J14" s="48"/>
@@ -9951,7 +9993,7 @@
     </row>
     <row r="15" spans="1:32">
       <c r="A15" s="9" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B15" s="7">
         <f>IF(B6="M",3,4)</f>
@@ -11423,7 +11465,7 @@
       </c>
       <c r="F2" s="43">
         <f>SUM(AF6:AF35)</f>
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="G2" s="49" t="str">
         <f>IF(B14&gt;6,"verouderd PTA",CONCATENATE("Dit is het programma van de huidige ",B6,B14," (cohort ",B7," - ",B9,")"))</f>
@@ -11569,7 +11611,7 @@
         <v>61</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>87</v>
+        <v>98</v>
       </c>
       <c r="D6" s="2">
         <v>243</v>
@@ -11579,7 +11621,7 @@
         <v>1</v>
       </c>
       <c r="H6" s="28" t="s">
-        <v>88</v>
+        <v>99</v>
       </c>
       <c r="I6" s="45">
         <v>1</v>
@@ -11596,7 +11638,7 @@
       </c>
       <c r="N6" s="46"/>
       <c r="O6" s="31" t="s">
-        <v>11</v>
+        <v>81</v>
       </c>
       <c r="P6" s="32"/>
       <c r="R6" s="7">
@@ -11641,7 +11683,7 @@
       </c>
       <c r="AB6" s="7">
         <f>IF(AND(OR($O6=instellingen!$I$3,$O6=instellingen!$I$4),OR($M6=instellingen!$I$2,$M6=instellingen!$I$4)),1,0)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC6" s="7">
         <f>IF(AND($O6=instellingen!$I$2,$M6=instellingen!$I$3),1,0)</f>
@@ -11657,7 +11699,7 @@
       </c>
       <c r="AF6" s="8">
         <f>SUM(R6:AE6)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:32" customHeight="1" ht="72">
@@ -11675,7 +11717,7 @@
         <v>1</v>
       </c>
       <c r="H7" s="28" t="s">
-        <v>89</v>
+        <v>100</v>
       </c>
       <c r="I7" s="45">
         <v>2</v>
@@ -11692,7 +11734,7 @@
       </c>
       <c r="N7" s="46"/>
       <c r="O7" s="31" t="s">
-        <v>11</v>
+        <v>81</v>
       </c>
       <c r="P7" s="32"/>
       <c r="R7" s="7">
@@ -11737,7 +11779,7 @@
       </c>
       <c r="AB7" s="7">
         <f>IF(AND(OR($O7=instellingen!$I$3,$O7=instellingen!$I$4),OR($M7=instellingen!$I$2,$M7=instellingen!$I$4)),1,0)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC7" s="7">
         <f>IF(AND($O7=instellingen!$I$2,$M7=instellingen!$I$3),1,0)</f>
@@ -11753,7 +11795,7 @@
       </c>
       <c r="AF7" s="8">
         <f>SUM(R7:AE7)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:32" customHeight="1" ht="72">
@@ -11771,7 +11813,7 @@
         <v>2</v>
       </c>
       <c r="H8" s="28" t="s">
-        <v>90</v>
+        <v>101</v>
       </c>
       <c r="I8" s="45">
         <v>2</v>
@@ -11788,7 +11830,7 @@
       </c>
       <c r="N8" s="46"/>
       <c r="O8" s="31" t="s">
-        <v>11</v>
+        <v>81</v>
       </c>
       <c r="P8" s="32"/>
       <c r="R8" s="7">
@@ -11833,7 +11875,7 @@
       </c>
       <c r="AB8" s="7">
         <f>IF(AND(OR($O8=instellingen!$I$3,$O8=instellingen!$I$4),OR($M8=instellingen!$I$2,$M8=instellingen!$I$4)),1,0)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC8" s="7">
         <f>IF(AND($O8=instellingen!$I$2,$M8=instellingen!$I$3),1,0)</f>
@@ -11849,7 +11891,7 @@
       </c>
       <c r="AF8" s="8">
         <f>SUM(R8:AE8)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:32" customHeight="1" ht="72">
@@ -11868,7 +11910,7 @@
         <v>3</v>
       </c>
       <c r="H9" s="28" t="s">
-        <v>91</v>
+        <v>102</v>
       </c>
       <c r="I9" s="45">
         <v>1</v>
@@ -11885,7 +11927,7 @@
       </c>
       <c r="N9" s="46"/>
       <c r="O9" s="31" t="s">
-        <v>11</v>
+        <v>81</v>
       </c>
       <c r="P9" s="32"/>
       <c r="R9" s="7">
@@ -11930,7 +11972,7 @@
       </c>
       <c r="AB9" s="7">
         <f>IF(AND(OR($O9=instellingen!$I$3,$O9=instellingen!$I$4),OR($M9=instellingen!$I$2,$M9=instellingen!$I$4)),1,0)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC9" s="7">
         <f>IF(AND($O9=instellingen!$I$2,$M9=instellingen!$I$3),1,0)</f>
@@ -11946,7 +11988,7 @@
       </c>
       <c r="AF9" s="8">
         <f>SUM(R9:AE9)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:32" customHeight="1" ht="72">
@@ -11955,7 +11997,7 @@
       </c>
       <c r="B10" s="6">
         <f>NOW()</f>
-        <v>44379.602314815</v>
+        <v>44385.63337963</v>
       </c>
       <c r="D10" s="2">
         <v>247</v>
@@ -11965,7 +12007,7 @@
         <v>3</v>
       </c>
       <c r="H10" s="28" t="s">
-        <v>92</v>
+        <v>103</v>
       </c>
       <c r="I10" s="45">
         <v>2</v>
@@ -11985,7 +12027,7 @@
         <v>11</v>
       </c>
       <c r="P10" s="32" t="s">
-        <v>93</v>
+        <v>104</v>
       </c>
       <c r="R10" s="7">
         <f>IF(OR(AND($G10&lt;&gt;instellingen!$G$2,ISBLANK($H10)),AND($G10=instellingen!$G$2,$H10&lt;&gt;"")),1,0)</f>
@@ -12064,7 +12106,7 @@
         <v>4</v>
       </c>
       <c r="H11" s="28" t="s">
-        <v>94</v>
+        <v>105</v>
       </c>
       <c r="I11" s="45">
         <v>2</v>
@@ -12081,7 +12123,7 @@
       </c>
       <c r="N11" s="46"/>
       <c r="O11" s="31" t="s">
-        <v>11</v>
+        <v>81</v>
       </c>
       <c r="P11" s="32"/>
       <c r="R11" s="7">
@@ -12126,7 +12168,7 @@
       </c>
       <c r="AB11" s="7">
         <f>IF(AND(OR($O11=instellingen!$I$3,$O11=instellingen!$I$4),OR($M11=instellingen!$I$2,$M11=instellingen!$I$4)),1,0)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC11" s="7">
         <f>IF(AND($O11=instellingen!$I$2,$M11=instellingen!$I$3),1,0)</f>
@@ -12142,7 +12184,7 @@
       </c>
       <c r="AF11" s="8">
         <f>SUM(R11:AE11)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:32">
@@ -12216,7 +12258,7 @@
         <v>4</v>
       </c>
       <c r="G14" s="48" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="H14" s="48"/>
       <c r="I14" s="48"/>
@@ -12241,7 +12283,7 @@
     </row>
     <row r="15" spans="1:32">
       <c r="A15" s="9" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B15" s="7">
         <f>IF(B6="M",3,4)</f>
@@ -12347,7 +12389,7 @@
         <v>1</v>
       </c>
       <c r="H18" s="28" t="s">
-        <v>95</v>
+        <v>106</v>
       </c>
       <c r="I18" s="45">
         <v>2</v>
@@ -12360,17 +12402,13 @@
         <v>100</v>
       </c>
       <c r="M18" s="27" t="s">
-        <v>8</v>
-      </c>
-      <c r="N18" s="46">
-        <v>2</v>
-      </c>
+        <v>11</v>
+      </c>
+      <c r="N18" s="46"/>
       <c r="O18" s="31" t="s">
-        <v>11</v>
-      </c>
-      <c r="P18" s="32" t="s">
-        <v>96</v>
-      </c>
+        <v>5</v>
+      </c>
+      <c r="P18" s="32"/>
       <c r="R18" s="7">
         <f>IF(OR(AND($G18&lt;&gt;instellingen!$G$2,ISBLANK($H18)),AND($G18=instellingen!$G$2,$H18&lt;&gt;"")),1,0)</f>
         <v>0</v>
@@ -12441,7 +12479,7 @@
         <v>2</v>
       </c>
       <c r="H19" s="28" t="s">
-        <v>97</v>
+        <v>107</v>
       </c>
       <c r="I19" s="45">
         <v>2</v>
@@ -12460,10 +12498,10 @@
         <v>2</v>
       </c>
       <c r="O19" s="31" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="P19" s="32" t="s">
-        <v>98</v>
+        <v>108</v>
       </c>
       <c r="R19" s="7">
         <f>IF(OR(AND($G19&lt;&gt;instellingen!$G$2,ISBLANK($H19)),AND($G19=instellingen!$G$2,$H19&lt;&gt;"")),1,0)</f>
@@ -12535,7 +12573,7 @@
         <v>3</v>
       </c>
       <c r="H20" s="28" t="s">
-        <v>99</v>
+        <v>109</v>
       </c>
       <c r="I20" s="45">
         <v>2</v>
@@ -12554,10 +12592,10 @@
         <v>2</v>
       </c>
       <c r="O20" s="31" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="P20" s="32" t="s">
-        <v>100</v>
+        <v>110</v>
       </c>
       <c r="R20" s="7">
         <f>IF(OR(AND($G20&lt;&gt;instellingen!$G$2,ISBLANK($H20)),AND($G20=instellingen!$G$2,$H20&lt;&gt;"")),1,0)</f>
@@ -12629,7 +12667,7 @@
         <v>4</v>
       </c>
       <c r="H21" s="28" t="s">
-        <v>101</v>
+        <v>111</v>
       </c>
       <c r="I21" s="45">
         <v>2</v>
@@ -12646,7 +12684,7 @@
       </c>
       <c r="N21" s="46"/>
       <c r="O21" s="31" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="P21" s="32"/>
       <c r="R21" s="7">
@@ -12691,7 +12729,7 @@
       </c>
       <c r="AB21" s="7">
         <f>IF(AND(OR($O21=instellingen!$I$3,$O21=instellingen!$I$4),OR($M21=instellingen!$I$2,$M21=instellingen!$I$4)),1,0)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC21" s="7">
         <f>IF(AND($O21=instellingen!$I$2,$M21=instellingen!$I$3),1,0)</f>
@@ -12707,7 +12745,7 @@
       </c>
       <c r="AF21" s="8">
         <f>SUM(R21:AE21)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22" spans="1:32" customHeight="1" ht="72">
@@ -12716,10 +12754,10 @@
       </c>
       <c r="E22" s="2"/>
       <c r="G22" s="27">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="H22" s="28" t="s">
-        <v>102</v>
+        <v>112</v>
       </c>
       <c r="I22" s="45">
         <v>2</v>
@@ -12739,7 +12777,7 @@
         <v>11</v>
       </c>
       <c r="P22" s="32" t="s">
-        <v>103</v>
+        <v>113</v>
       </c>
       <c r="R22" s="7">
         <f>IF(OR(AND($G22&lt;&gt;instellingen!$G$2,ISBLANK($H22)),AND($G22=instellingen!$G$2,$H22&lt;&gt;"")),1,0)</f>
@@ -12933,7 +12971,9 @@
       <c r="AE25" s="7"/>
     </row>
     <row r="26" spans="1:32" customHeight="1" ht="72">
-      <c r="G26" s="48"/>
+      <c r="G26" s="48" t="s">
+        <v>78</v>
+      </c>
       <c r="H26" s="48"/>
       <c r="I26" s="48"/>
       <c r="J26" s="48"/>
@@ -13767,7 +13807,7 @@
       </c>
       <c r="F2" s="43">
         <f>SUM(AF6:AF35)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G2" s="49" t="str">
         <f>IF(B14&gt;6,"verouderd PTA",CONCATENATE("Dit is het programma van de huidige ",B6,B14," (cohort ",B7," - ",B9,")"))</f>
@@ -13913,7 +13953,7 @@
         <v>61</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>87</v>
+        <v>98</v>
       </c>
       <c r="D6" s="2"/>
       <c r="E6" s="2"/>
@@ -14267,7 +14307,7 @@
       </c>
       <c r="B10" s="6">
         <f>NOW()</f>
-        <v>44379.602326389</v>
+        <v>44385.63337963</v>
       </c>
       <c r="D10" s="2"/>
       <c r="E10" s="2"/>
@@ -14533,7 +14573,7 @@
     </row>
     <row r="15" spans="1:32">
       <c r="A15" s="9" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B15" s="7">
         <f>IF(B6="M",3,4)</f>
@@ -14639,7 +14679,7 @@
         <v>1</v>
       </c>
       <c r="H18" s="28" t="s">
-        <v>95</v>
+        <v>114</v>
       </c>
       <c r="I18" s="45">
         <v>2</v>
@@ -14658,10 +14698,10 @@
         <v>2</v>
       </c>
       <c r="O18" s="31" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="P18" s="32" t="s">
-        <v>96</v>
+        <v>115</v>
       </c>
       <c r="R18" s="7">
         <f>IF(OR(AND($G18&lt;&gt;instellingen!$G$2,ISBLANK($H18)),AND($G18=instellingen!$G$2,$H18&lt;&gt;"")),1,0)</f>
@@ -14733,7 +14773,7 @@
         <v>2</v>
       </c>
       <c r="H19" s="28" t="s">
-        <v>97</v>
+        <v>107</v>
       </c>
       <c r="I19" s="45">
         <v>2</v>
@@ -14752,10 +14792,10 @@
         <v>2</v>
       </c>
       <c r="O19" s="31" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="P19" s="32" t="s">
-        <v>98</v>
+        <v>108</v>
       </c>
       <c r="R19" s="7">
         <f>IF(OR(AND($G19&lt;&gt;instellingen!$G$2,ISBLANK($H19)),AND($G19=instellingen!$G$2,$H19&lt;&gt;"")),1,0)</f>
@@ -14827,7 +14867,7 @@
         <v>3</v>
       </c>
       <c r="H20" s="28" t="s">
-        <v>99</v>
+        <v>109</v>
       </c>
       <c r="I20" s="45">
         <v>2</v>
@@ -14846,10 +14886,10 @@
         <v>2</v>
       </c>
       <c r="O20" s="31" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="P20" s="32" t="s">
-        <v>100</v>
+        <v>110</v>
       </c>
       <c r="R20" s="7">
         <f>IF(OR(AND($G20&lt;&gt;instellingen!$G$2,ISBLANK($H20)),AND($G20=instellingen!$G$2,$H20&lt;&gt;"")),1,0)</f>
@@ -14921,7 +14961,7 @@
         <v>4</v>
       </c>
       <c r="H21" s="28" t="s">
-        <v>101</v>
+        <v>111</v>
       </c>
       <c r="I21" s="45">
         <v>2</v>
@@ -14938,7 +14978,7 @@
       </c>
       <c r="N21" s="46"/>
       <c r="O21" s="31" t="s">
-        <v>11</v>
+        <v>81</v>
       </c>
       <c r="P21" s="32"/>
       <c r="R21" s="7">
@@ -14983,7 +15023,7 @@
       </c>
       <c r="AB21" s="7">
         <f>IF(AND(OR($O21=instellingen!$I$3,$O21=instellingen!$I$4),OR($M21=instellingen!$I$2,$M21=instellingen!$I$4)),1,0)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC21" s="7">
         <f>IF(AND($O21=instellingen!$I$2,$M21=instellingen!$I$3),1,0)</f>
@@ -14999,7 +15039,7 @@
       </c>
       <c r="AF21" s="8">
         <f>SUM(R21:AE21)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22" spans="1:32" customHeight="1" ht="72">
@@ -15011,7 +15051,7 @@
         <v>4</v>
       </c>
       <c r="H22" s="28" t="s">
-        <v>102</v>
+        <v>112</v>
       </c>
       <c r="I22" s="45">
         <v>2</v>
@@ -15031,7 +15071,7 @@
         <v>11</v>
       </c>
       <c r="P22" s="32" t="s">
-        <v>103</v>
+        <v>113</v>
       </c>
       <c r="R22" s="7">
         <f>IF(OR(AND($G22&lt;&gt;instellingen!$G$2,ISBLANK($H22)),AND($G22=instellingen!$G$2,$H22&lt;&gt;"")),1,0)</f>
@@ -15226,7 +15266,7 @@
     </row>
     <row r="26" spans="1:32" customHeight="1" ht="72">
       <c r="G26" s="48" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="H26" s="48"/>
       <c r="I26" s="48"/>
@@ -15350,7 +15390,7 @@
         <v>1</v>
       </c>
       <c r="H30" s="28" t="s">
-        <v>104</v>
+        <v>116</v>
       </c>
       <c r="I30" s="45"/>
       <c r="J30" s="29" t="s">
@@ -15367,10 +15407,10 @@
         <v>2</v>
       </c>
       <c r="O30" s="31" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="P30" s="32" t="s">
-        <v>98</v>
+        <v>108</v>
       </c>
       <c r="R30" s="7">
         <f>IF(OR(AND($G30&lt;&gt;instellingen!$G$2,ISBLANK($H30)),AND($G30=instellingen!$G$2,$H30&lt;&gt;"")),1,0)</f>
@@ -15442,7 +15482,7 @@
         <v>2</v>
       </c>
       <c r="H31" s="28" t="s">
-        <v>105</v>
+        <v>117</v>
       </c>
       <c r="I31" s="45"/>
       <c r="J31" s="29" t="s">
@@ -15459,10 +15499,10 @@
         <v>2</v>
       </c>
       <c r="O31" s="31" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="P31" s="32" t="s">
-        <v>106</v>
+        <v>118</v>
       </c>
       <c r="R31" s="7">
         <f>IF(OR(AND($G31&lt;&gt;instellingen!$G$2,ISBLANK($H31)),AND($G31=instellingen!$G$2,$H31&lt;&gt;"")),1,0)</f>
@@ -15534,7 +15574,7 @@
         <v>3</v>
       </c>
       <c r="H32" s="28" t="s">
-        <v>107</v>
+        <v>119</v>
       </c>
       <c r="I32" s="45"/>
       <c r="J32" s="29" t="s">
@@ -15551,10 +15591,10 @@
         <v>2</v>
       </c>
       <c r="O32" s="31" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="P32" s="32" t="s">
-        <v>108</v>
+        <v>120</v>
       </c>
       <c r="R32" s="7">
         <f>IF(OR(AND($G32&lt;&gt;instellingen!$G$2,ISBLANK($H32)),AND($G32=instellingen!$G$2,$H32&lt;&gt;"")),1,0)</f>
@@ -15882,7 +15922,9 @@
       <c r="M37" s="47"/>
     </row>
     <row r="38" spans="1:32" customHeight="1" ht="72">
-      <c r="G38" s="48"/>
+      <c r="G38" s="48" t="s">
+        <v>78</v>
+      </c>
       <c r="H38" s="48"/>
       <c r="I38" s="48"/>
       <c r="J38" s="48"/>
@@ -16237,7 +16279,7 @@
         <v>61</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>87</v>
+        <v>98</v>
       </c>
       <c r="D6" s="2"/>
       <c r="E6" s="2"/>
@@ -16591,7 +16633,7 @@
       </c>
       <c r="B10" s="6">
         <f>NOW()</f>
-        <v>44379.602326389</v>
+        <v>44385.63337963</v>
       </c>
       <c r="D10" s="2"/>
       <c r="E10" s="2"/>
@@ -16857,7 +16899,7 @@
     </row>
     <row r="15" spans="1:32">
       <c r="A15" s="9" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B15" s="7">
         <f>IF(B6="M",3,4)</f>
@@ -17618,7 +17660,7 @@
         <v>1</v>
       </c>
       <c r="H30" s="28" t="s">
-        <v>104</v>
+        <v>116</v>
       </c>
       <c r="I30" s="45"/>
       <c r="J30" s="29" t="s">
@@ -17635,10 +17677,10 @@
         <v>2</v>
       </c>
       <c r="O30" s="31" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="P30" s="32" t="s">
-        <v>98</v>
+        <v>108</v>
       </c>
       <c r="R30" s="7">
         <f>IF(OR(AND($G30&lt;&gt;instellingen!$G$2,ISBLANK($H30)),AND($G30=instellingen!$G$2,$H30&lt;&gt;"")),1,0)</f>
@@ -17710,7 +17752,7 @@
         <v>2</v>
       </c>
       <c r="H31" s="28" t="s">
-        <v>105</v>
+        <v>117</v>
       </c>
       <c r="I31" s="45"/>
       <c r="J31" s="29" t="s">
@@ -17727,10 +17769,10 @@
         <v>2</v>
       </c>
       <c r="O31" s="31" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="P31" s="32" t="s">
-        <v>106</v>
+        <v>118</v>
       </c>
       <c r="R31" s="7">
         <f>IF(OR(AND($G31&lt;&gt;instellingen!$G$2,ISBLANK($H31)),AND($G31=instellingen!$G$2,$H31&lt;&gt;"")),1,0)</f>
@@ -17802,7 +17844,7 @@
         <v>3</v>
       </c>
       <c r="H32" s="28" t="s">
-        <v>107</v>
+        <v>119</v>
       </c>
       <c r="I32" s="45"/>
       <c r="J32" s="29" t="s">
@@ -17819,10 +17861,10 @@
         <v>2</v>
       </c>
       <c r="O32" s="31" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="P32" s="32" t="s">
-        <v>108</v>
+        <v>120</v>
       </c>
       <c r="R32" s="7">
         <f>IF(OR(AND($G32&lt;&gt;instellingen!$G$2,ISBLANK($H32)),AND($G32=instellingen!$G$2,$H32&lt;&gt;"")),1,0)</f>
@@ -18151,7 +18193,7 @@
     </row>
     <row r="38" spans="1:32" customHeight="1" ht="72">
       <c r="G38" s="48" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="H38" s="48"/>
       <c r="I38" s="48"/>

--- a/public/cohort/fileExcel/xlsxUIT/OPEN/SK_OPEN.xlsx
+++ b/public/cohort/fileExcel/xlsxUIT/OPEN/SK_OPEN.xlsx
@@ -888,6 +888,9 @@
     <t>SO H1: Scheiden en reageren</t>
   </si>
   <si>
+    <t>kies...</t>
+  </si>
+  <si>
     <t>startJaar</t>
   </si>
   <si>
@@ -937,9 +940,6 @@
   </si>
   <si>
     <t>H1 Scheiden en reageren</t>
-  </si>
-  <si>
-    <t>kies...</t>
   </si>
   <si>
     <t>H2 en 3 Bouwstenen van stoffen, stoffen en reacties, met basiskennis uit de vorige hoofdstukken</t>
@@ -2456,7 +2456,7 @@
       </c>
       <c r="N6" s="46"/>
       <c r="O6" s="31" t="s">
-        <v>5</v>
+        <v>64</v>
       </c>
       <c r="P6" s="32"/>
       <c r="R6" s="7">
@@ -2522,7 +2522,7 @@
     </row>
     <row r="7" spans="1:32" customHeight="1" ht="72">
       <c r="A7" s="9" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B7" s="2">
         <v>2021</v>
@@ -2535,7 +2535,7 @@
         <v>1</v>
       </c>
       <c r="H7" s="28" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="I7" s="45">
         <v>2</v>
@@ -2552,7 +2552,7 @@
       </c>
       <c r="N7" s="46"/>
       <c r="O7" s="31" t="s">
-        <v>5</v>
+        <v>64</v>
       </c>
       <c r="P7" s="32"/>
       <c r="R7" s="7">
@@ -2618,7 +2618,7 @@
     </row>
     <row r="8" spans="1:32" customHeight="1" ht="72">
       <c r="A8" s="9" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B8" s="2">
         <v>230</v>
@@ -2631,7 +2631,7 @@
         <v>2</v>
       </c>
       <c r="H8" s="28" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="I8" s="45">
         <v>2</v>
@@ -2648,7 +2648,7 @@
       </c>
       <c r="N8" s="46"/>
       <c r="O8" s="31" t="s">
-        <v>5</v>
+        <v>64</v>
       </c>
       <c r="P8" s="32"/>
       <c r="R8" s="7">
@@ -2714,7 +2714,7 @@
     </row>
     <row r="9" spans="1:32" customHeight="1" ht="72">
       <c r="A9" s="9" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B9" s="4">
         <f>IF(B6="A",B7+3,IF(B6="H",B7+2,B7+1))</f>
@@ -2728,7 +2728,7 @@
         <v>3</v>
       </c>
       <c r="H9" s="28" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="I9" s="45">
         <v>1</v>
@@ -2745,7 +2745,7 @@
       </c>
       <c r="N9" s="46"/>
       <c r="O9" s="31" t="s">
-        <v>5</v>
+        <v>64</v>
       </c>
       <c r="P9" s="32"/>
       <c r="R9" s="7">
@@ -2811,11 +2811,11 @@
     </row>
     <row r="10" spans="1:32" customHeight="1" ht="72">
       <c r="A10" s="9" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="B10" s="6">
         <f>NOW()</f>
-        <v>44385.633368056</v>
+        <v>44387.766099537</v>
       </c>
       <c r="D10" s="2">
         <v>893</v>
@@ -2825,7 +2825,7 @@
         <v>3</v>
       </c>
       <c r="H10" s="28" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="I10" s="45">
         <v>2</v>
@@ -2845,7 +2845,7 @@
         <v>11</v>
       </c>
       <c r="P10" s="32" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="R10" s="7">
         <f>IF(OR(AND($G10&lt;&gt;instellingen!$G$2,ISBLANK($H10)),AND($G10=instellingen!$G$2,$H10&lt;&gt;"")),1,0)</f>
@@ -2910,7 +2910,7 @@
     </row>
     <row r="11" spans="1:32" customHeight="1" ht="72">
       <c r="A11" s="9" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="B11" s="4">
         <f>IF(MONTH(NOW())&gt;7,YEAR(NOW()),YEAR(NOW())-1)</f>
@@ -2924,7 +2924,7 @@
         <v>4</v>
       </c>
       <c r="H11" s="28" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="I11" s="45">
         <v>2</v>
@@ -2941,7 +2941,7 @@
       </c>
       <c r="N11" s="46"/>
       <c r="O11" s="31" t="s">
-        <v>5</v>
+        <v>64</v>
       </c>
       <c r="P11" s="32"/>
       <c r="R11" s="7">
@@ -3007,7 +3007,7 @@
     </row>
     <row r="12" spans="1:32">
       <c r="A12" s="9" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="B12" s="4" t="str">
         <f>CONCATENATE(B11," - ",B11+1)</f>
@@ -3030,7 +3030,7 @@
     </row>
     <row r="13" spans="1:32">
       <c r="A13" s="9" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="B13" s="4">
         <f>B7-B11</f>
@@ -3069,14 +3069,14 @@
     </row>
     <row r="14" spans="1:32" customHeight="1" ht="72">
       <c r="A14" s="9" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="B14" s="7">
         <f>B15+B11-B7</f>
         <v>3</v>
       </c>
       <c r="G14" s="48" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="H14" s="48"/>
       <c r="I14" s="48"/>
@@ -3101,7 +3101,7 @@
     </row>
     <row r="15" spans="1:32">
       <c r="A15" s="9" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B15" s="7">
         <f>IF(B6="M",3,4)</f>
@@ -4727,7 +4727,7 @@
         <v>1</v>
       </c>
       <c r="H6" s="28" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="I6" s="45">
         <v>2</v>
@@ -4744,7 +4744,7 @@
       </c>
       <c r="N6" s="46"/>
       <c r="O6" s="31" t="s">
-        <v>81</v>
+        <v>64</v>
       </c>
       <c r="P6" s="32"/>
       <c r="R6" s="7">
@@ -4810,7 +4810,7 @@
     </row>
     <row r="7" spans="1:32" customHeight="1" ht="72">
       <c r="A7" s="9" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B7" s="2">
         <v>2020</v>
@@ -4840,7 +4840,7 @@
       </c>
       <c r="N7" s="46"/>
       <c r="O7" s="31" t="s">
-        <v>81</v>
+        <v>64</v>
       </c>
       <c r="P7" s="32"/>
       <c r="R7" s="7">
@@ -4906,7 +4906,7 @@
     </row>
     <row r="8" spans="1:32" customHeight="1" ht="72">
       <c r="A8" s="9" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B8" s="2">
         <v>68</v>
@@ -4936,7 +4936,7 @@
       </c>
       <c r="N8" s="46"/>
       <c r="O8" s="31" t="s">
-        <v>81</v>
+        <v>64</v>
       </c>
       <c r="P8" s="32"/>
       <c r="R8" s="7">
@@ -5002,7 +5002,7 @@
     </row>
     <row r="9" spans="1:32" customHeight="1" ht="72">
       <c r="A9" s="9" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B9" s="4">
         <f>IF(B6="A",B7+3,IF(B6="H",B7+2,B7+1))</f>
@@ -5033,7 +5033,7 @@
       </c>
       <c r="N9" s="46"/>
       <c r="O9" s="31" t="s">
-        <v>81</v>
+        <v>64</v>
       </c>
       <c r="P9" s="32"/>
       <c r="R9" s="7">
@@ -5099,11 +5099,11 @@
     </row>
     <row r="10" spans="1:32" customHeight="1" ht="72">
       <c r="A10" s="9" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="B10" s="6">
         <f>NOW()</f>
-        <v>44385.633368056</v>
+        <v>44387.766099537</v>
       </c>
       <c r="D10" s="2">
         <v>237</v>
@@ -5133,7 +5133,7 @@
         <v>11</v>
       </c>
       <c r="P10" s="32" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="R10" s="7">
         <f>IF(OR(AND($G10&lt;&gt;instellingen!$G$2,ISBLANK($H10)),AND($G10=instellingen!$G$2,$H10&lt;&gt;"")),1,0)</f>
@@ -5198,7 +5198,7 @@
     </row>
     <row r="11" spans="1:32" customHeight="1" ht="72">
       <c r="A11" s="9" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="B11" s="4">
         <f>IF(MONTH(NOW())&gt;7,YEAR(NOW()),YEAR(NOW())-1)</f>
@@ -5229,7 +5229,7 @@
       </c>
       <c r="N11" s="46"/>
       <c r="O11" s="31" t="s">
-        <v>81</v>
+        <v>64</v>
       </c>
       <c r="P11" s="32"/>
       <c r="R11" s="7">
@@ -5295,7 +5295,7 @@
     </row>
     <row r="12" spans="1:32">
       <c r="A12" s="9" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="B12" s="4" t="str">
         <f>CONCATENATE(B11," - ",B11+1)</f>
@@ -5318,7 +5318,7 @@
     </row>
     <row r="13" spans="1:32">
       <c r="A13" s="9" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="B13" s="4">
         <f>B7-B11</f>
@@ -5357,14 +5357,14 @@
     </row>
     <row r="14" spans="1:32" customHeight="1" ht="72">
       <c r="A14" s="9" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="B14" s="7">
         <f>B15+B11-B7</f>
         <v>4</v>
       </c>
       <c r="G14" s="48" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="H14" s="48"/>
       <c r="I14" s="48"/>
@@ -5389,7 +5389,7 @@
     </row>
     <row r="15" spans="1:32">
       <c r="A15" s="9" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B15" s="7">
         <f>IF(B6="M",3,4)</f>
@@ -5789,7 +5789,7 @@
         <v>11</v>
       </c>
       <c r="P21" s="32" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="R21" s="7">
         <f>IF(OR(AND($G21&lt;&gt;instellingen!$G$2,ISBLANK($H21)),AND($G21=instellingen!$G$2,$H21&lt;&gt;"")),1,0)</f>
@@ -6066,7 +6066,7 @@
     </row>
     <row r="26" spans="1:32" customHeight="1" ht="72">
       <c r="G26" s="48" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="H26" s="48"/>
       <c r="I26" s="48"/>
@@ -7130,7 +7130,7 @@
     </row>
     <row r="7" spans="1:32" customHeight="1" ht="72">
       <c r="A7" s="9" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B7" s="2">
         <v>2019</v>
@@ -7218,7 +7218,7 @@
     </row>
     <row r="8" spans="1:32" customHeight="1" ht="72">
       <c r="A8" s="9" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B8" s="2">
         <v>69</v>
@@ -7306,7 +7306,7 @@
     </row>
     <row r="9" spans="1:32" customHeight="1" ht="72">
       <c r="A9" s="9" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B9" s="4">
         <f>IF(B6="A",B7+3,IF(B6="H",B7+2,B7+1))</f>
@@ -7395,11 +7395,11 @@
     </row>
     <row r="10" spans="1:32" customHeight="1" ht="72">
       <c r="A10" s="9" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="B10" s="6">
         <f>NOW()</f>
-        <v>44385.63337963</v>
+        <v>44387.766099537</v>
       </c>
       <c r="D10" s="2"/>
       <c r="E10" s="2"/>
@@ -7484,7 +7484,7 @@
     </row>
     <row r="11" spans="1:32" customHeight="1" ht="72">
       <c r="A11" s="9" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="B11" s="4">
         <f>IF(MONTH(NOW())&gt;7,YEAR(NOW()),YEAR(NOW())-1)</f>
@@ -7573,7 +7573,7 @@
     </row>
     <row r="12" spans="1:32">
       <c r="A12" s="9" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="B12" s="4" t="str">
         <f>CONCATENATE(B11," - ",B11+1)</f>
@@ -7596,7 +7596,7 @@
     </row>
     <row r="13" spans="1:32">
       <c r="A13" s="9" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="B13" s="4">
         <f>B7-B11</f>
@@ -7635,7 +7635,7 @@
     </row>
     <row r="14" spans="1:32" customHeight="1" ht="72">
       <c r="A14" s="9" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="B14" s="7">
         <f>B15+B11-B7</f>
@@ -7665,7 +7665,7 @@
     </row>
     <row r="15" spans="1:32">
       <c r="A15" s="9" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B15" s="7">
         <f>IF(B6="M",3,4)</f>
@@ -8065,7 +8065,7 @@
         <v>11</v>
       </c>
       <c r="P21" s="32" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="R21" s="7">
         <f>IF(OR(AND($G21&lt;&gt;instellingen!$G$2,ISBLANK($H21)),AND($G21=instellingen!$G$2,$H21&lt;&gt;"")),1,0)</f>
@@ -8342,7 +8342,7 @@
     </row>
     <row r="26" spans="1:32" customHeight="1" ht="72">
       <c r="G26" s="48" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="H26" s="48"/>
       <c r="I26" s="48"/>
@@ -9348,7 +9348,7 @@
       </c>
       <c r="N6" s="46"/>
       <c r="O6" s="31" t="s">
-        <v>5</v>
+        <v>64</v>
       </c>
       <c r="P6" s="32"/>
       <c r="R6" s="7">
@@ -9414,7 +9414,7 @@
     </row>
     <row r="7" spans="1:32" customHeight="1" ht="72">
       <c r="A7" s="9" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B7" s="2">
         <v>2021</v>
@@ -9444,7 +9444,7 @@
       </c>
       <c r="N7" s="46"/>
       <c r="O7" s="31" t="s">
-        <v>5</v>
+        <v>64</v>
       </c>
       <c r="P7" s="32"/>
       <c r="R7" s="7">
@@ -9510,7 +9510,7 @@
     </row>
     <row r="8" spans="1:32" customHeight="1" ht="72">
       <c r="A8" s="9" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B8" s="2">
         <v>231</v>
@@ -9540,7 +9540,7 @@
       </c>
       <c r="N8" s="46"/>
       <c r="O8" s="31" t="s">
-        <v>5</v>
+        <v>64</v>
       </c>
       <c r="P8" s="32"/>
       <c r="R8" s="7">
@@ -9606,7 +9606,7 @@
     </row>
     <row r="9" spans="1:32" customHeight="1" ht="72">
       <c r="A9" s="9" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B9" s="4">
         <f>IF(B6="A",B7+3,IF(B6="H",B7+2,B7+1))</f>
@@ -9637,7 +9637,7 @@
       </c>
       <c r="N9" s="46"/>
       <c r="O9" s="31" t="s">
-        <v>5</v>
+        <v>64</v>
       </c>
       <c r="P9" s="32"/>
       <c r="R9" s="7">
@@ -9703,11 +9703,11 @@
     </row>
     <row r="10" spans="1:32" customHeight="1" ht="72">
       <c r="A10" s="9" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="B10" s="6">
         <f>NOW()</f>
-        <v>44385.63337963</v>
+        <v>44387.766099537</v>
       </c>
       <c r="D10" s="2">
         <v>907</v>
@@ -9802,7 +9802,7 @@
     </row>
     <row r="11" spans="1:32" customHeight="1" ht="72">
       <c r="A11" s="9" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="B11" s="4">
         <f>IF(MONTH(NOW())&gt;7,YEAR(NOW()),YEAR(NOW())-1)</f>
@@ -9833,7 +9833,7 @@
       </c>
       <c r="N11" s="46"/>
       <c r="O11" s="31" t="s">
-        <v>5</v>
+        <v>64</v>
       </c>
       <c r="P11" s="32"/>
       <c r="R11" s="7">
@@ -9899,7 +9899,7 @@
     </row>
     <row r="12" spans="1:32">
       <c r="A12" s="9" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="B12" s="4" t="str">
         <f>CONCATENATE(B11," - ",B11+1)</f>
@@ -9922,7 +9922,7 @@
     </row>
     <row r="13" spans="1:32">
       <c r="A13" s="9" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="B13" s="4">
         <f>B7-B11</f>
@@ -9961,14 +9961,14 @@
     </row>
     <row r="14" spans="1:32" customHeight="1" ht="72">
       <c r="A14" s="9" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="B14" s="7">
         <f>B15+B11-B7</f>
         <v>3</v>
       </c>
       <c r="G14" s="48" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="H14" s="48"/>
       <c r="I14" s="48"/>
@@ -9993,7 +9993,7 @@
     </row>
     <row r="15" spans="1:32">
       <c r="A15" s="9" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B15" s="7">
         <f>IF(B6="M",3,4)</f>
@@ -11638,7 +11638,7 @@
       </c>
       <c r="N6" s="46"/>
       <c r="O6" s="31" t="s">
-        <v>81</v>
+        <v>64</v>
       </c>
       <c r="P6" s="32"/>
       <c r="R6" s="7">
@@ -11704,7 +11704,7 @@
     </row>
     <row r="7" spans="1:32" customHeight="1" ht="72">
       <c r="A7" s="9" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B7" s="2">
         <v>2020</v>
@@ -11734,7 +11734,7 @@
       </c>
       <c r="N7" s="46"/>
       <c r="O7" s="31" t="s">
-        <v>81</v>
+        <v>64</v>
       </c>
       <c r="P7" s="32"/>
       <c r="R7" s="7">
@@ -11800,7 +11800,7 @@
     </row>
     <row r="8" spans="1:32" customHeight="1" ht="72">
       <c r="A8" s="9" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B8" s="2">
         <v>70</v>
@@ -11830,7 +11830,7 @@
       </c>
       <c r="N8" s="46"/>
       <c r="O8" s="31" t="s">
-        <v>81</v>
+        <v>64</v>
       </c>
       <c r="P8" s="32"/>
       <c r="R8" s="7">
@@ -11896,7 +11896,7 @@
     </row>
     <row r="9" spans="1:32" customHeight="1" ht="72">
       <c r="A9" s="9" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B9" s="4">
         <f>IF(B6="A",B7+3,IF(B6="H",B7+2,B7+1))</f>
@@ -11927,7 +11927,7 @@
       </c>
       <c r="N9" s="46"/>
       <c r="O9" s="31" t="s">
-        <v>81</v>
+        <v>64</v>
       </c>
       <c r="P9" s="32"/>
       <c r="R9" s="7">
@@ -11993,11 +11993,11 @@
     </row>
     <row r="10" spans="1:32" customHeight="1" ht="72">
       <c r="A10" s="9" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="B10" s="6">
         <f>NOW()</f>
-        <v>44385.63337963</v>
+        <v>44387.766099537</v>
       </c>
       <c r="D10" s="2">
         <v>247</v>
@@ -12092,7 +12092,7 @@
     </row>
     <row r="11" spans="1:32" customHeight="1" ht="72">
       <c r="A11" s="9" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="B11" s="4">
         <f>IF(MONTH(NOW())&gt;7,YEAR(NOW()),YEAR(NOW())-1)</f>
@@ -12123,7 +12123,7 @@
       </c>
       <c r="N11" s="46"/>
       <c r="O11" s="31" t="s">
-        <v>81</v>
+        <v>64</v>
       </c>
       <c r="P11" s="32"/>
       <c r="R11" s="7">
@@ -12189,7 +12189,7 @@
     </row>
     <row r="12" spans="1:32">
       <c r="A12" s="9" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="B12" s="4" t="str">
         <f>CONCATENATE(B11," - ",B11+1)</f>
@@ -12212,7 +12212,7 @@
     </row>
     <row r="13" spans="1:32">
       <c r="A13" s="9" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="B13" s="4">
         <f>B7-B11</f>
@@ -12251,14 +12251,14 @@
     </row>
     <row r="14" spans="1:32" customHeight="1" ht="72">
       <c r="A14" s="9" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="B14" s="7">
         <f>B15+B11-B7</f>
         <v>4</v>
       </c>
       <c r="G14" s="48" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="H14" s="48"/>
       <c r="I14" s="48"/>
@@ -12283,7 +12283,7 @@
     </row>
     <row r="15" spans="1:32">
       <c r="A15" s="9" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B15" s="7">
         <f>IF(B6="M",3,4)</f>
@@ -12406,7 +12406,7 @@
       </c>
       <c r="N18" s="46"/>
       <c r="O18" s="31" t="s">
-        <v>5</v>
+        <v>64</v>
       </c>
       <c r="P18" s="32"/>
       <c r="R18" s="7">
@@ -12684,7 +12684,7 @@
       </c>
       <c r="N21" s="46"/>
       <c r="O21" s="31" t="s">
-        <v>5</v>
+        <v>64</v>
       </c>
       <c r="P21" s="32"/>
       <c r="R21" s="7">
@@ -12972,7 +12972,7 @@
     </row>
     <row r="26" spans="1:32" customHeight="1" ht="72">
       <c r="G26" s="48" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="H26" s="48"/>
       <c r="I26" s="48"/>
@@ -14038,7 +14038,7 @@
     </row>
     <row r="7" spans="1:32" customHeight="1" ht="72">
       <c r="A7" s="9" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B7" s="2">
         <v>2019</v>
@@ -14126,7 +14126,7 @@
     </row>
     <row r="8" spans="1:32" customHeight="1" ht="72">
       <c r="A8" s="9" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B8" s="2">
         <v>71</v>
@@ -14214,7 +14214,7 @@
     </row>
     <row r="9" spans="1:32" customHeight="1" ht="72">
       <c r="A9" s="9" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B9" s="4">
         <f>IF(B6="A",B7+3,IF(B6="H",B7+2,B7+1))</f>
@@ -14303,11 +14303,11 @@
     </row>
     <row r="10" spans="1:32" customHeight="1" ht="72">
       <c r="A10" s="9" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="B10" s="6">
         <f>NOW()</f>
-        <v>44385.63337963</v>
+        <v>44387.766111111</v>
       </c>
       <c r="D10" s="2"/>
       <c r="E10" s="2"/>
@@ -14392,7 +14392,7 @@
     </row>
     <row r="11" spans="1:32" customHeight="1" ht="72">
       <c r="A11" s="9" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="B11" s="4">
         <f>IF(MONTH(NOW())&gt;7,YEAR(NOW()),YEAR(NOW())-1)</f>
@@ -14481,7 +14481,7 @@
     </row>
     <row r="12" spans="1:32">
       <c r="A12" s="9" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="B12" s="4" t="str">
         <f>CONCATENATE(B11," - ",B11+1)</f>
@@ -14504,7 +14504,7 @@
     </row>
     <row r="13" spans="1:32">
       <c r="A13" s="9" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="B13" s="4">
         <f>B7-B11</f>
@@ -14543,7 +14543,7 @@
     </row>
     <row r="14" spans="1:32" customHeight="1" ht="72">
       <c r="A14" s="9" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="B14" s="7">
         <f>B15+B11-B7</f>
@@ -14573,7 +14573,7 @@
     </row>
     <row r="15" spans="1:32">
       <c r="A15" s="9" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B15" s="7">
         <f>IF(B6="M",3,4)</f>
@@ -14978,7 +14978,7 @@
       </c>
       <c r="N21" s="46"/>
       <c r="O21" s="31" t="s">
-        <v>81</v>
+        <v>64</v>
       </c>
       <c r="P21" s="32"/>
       <c r="R21" s="7">
@@ -15266,7 +15266,7 @@
     </row>
     <row r="26" spans="1:32" customHeight="1" ht="72">
       <c r="G26" s="48" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="H26" s="48"/>
       <c r="I26" s="48"/>
@@ -15923,7 +15923,7 @@
     </row>
     <row r="38" spans="1:32" customHeight="1" ht="72">
       <c r="G38" s="48" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="H38" s="48"/>
       <c r="I38" s="48"/>
@@ -16364,7 +16364,7 @@
     </row>
     <row r="7" spans="1:32" customHeight="1" ht="72">
       <c r="A7" s="9" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B7" s="2">
         <v>2018</v>
@@ -16452,7 +16452,7 @@
     </row>
     <row r="8" spans="1:32" customHeight="1" ht="72">
       <c r="A8" s="9" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B8" s="2">
         <v>72</v>
@@ -16540,7 +16540,7 @@
     </row>
     <row r="9" spans="1:32" customHeight="1" ht="72">
       <c r="A9" s="9" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B9" s="4">
         <f>IF(B6="A",B7+3,IF(B6="H",B7+2,B7+1))</f>
@@ -16629,11 +16629,11 @@
     </row>
     <row r="10" spans="1:32" customHeight="1" ht="72">
       <c r="A10" s="9" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="B10" s="6">
         <f>NOW()</f>
-        <v>44385.63337963</v>
+        <v>44387.766111111</v>
       </c>
       <c r="D10" s="2"/>
       <c r="E10" s="2"/>
@@ -16718,7 +16718,7 @@
     </row>
     <row r="11" spans="1:32" customHeight="1" ht="72">
       <c r="A11" s="9" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="B11" s="4">
         <f>IF(MONTH(NOW())&gt;7,YEAR(NOW()),YEAR(NOW())-1)</f>
@@ -16807,7 +16807,7 @@
     </row>
     <row r="12" spans="1:32">
       <c r="A12" s="9" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="B12" s="4" t="str">
         <f>CONCATENATE(B11," - ",B11+1)</f>
@@ -16830,7 +16830,7 @@
     </row>
     <row r="13" spans="1:32">
       <c r="A13" s="9" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="B13" s="4">
         <f>B7-B11</f>
@@ -16869,7 +16869,7 @@
     </row>
     <row r="14" spans="1:32" customHeight="1" ht="72">
       <c r="A14" s="9" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="B14" s="7">
         <f>B15+B11-B7</f>
@@ -16899,7 +16899,7 @@
     </row>
     <row r="15" spans="1:32">
       <c r="A15" s="9" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B15" s="7">
         <f>IF(B6="M",3,4)</f>
@@ -18193,7 +18193,7 @@
     </row>
     <row r="38" spans="1:32" customHeight="1" ht="72">
       <c r="G38" s="48" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="H38" s="48"/>
       <c r="I38" s="48"/>
